--- a/staircase.xlsx
+++ b/staircase.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,11 +107,6 @@
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,7 +188,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,7 +244,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>

--- a/staircase.xlsx
+++ b/staircase.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,6 +107,11 @@
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +169,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,7 +193,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,13 +276,13 @@
         <v>0.25</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>-6</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>-0.05</v>
+        <v>-0.0625</v>
       </c>
     </row>
   </sheetData>

--- a/staircase.xlsx
+++ b/staircase.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,11 +107,6 @@
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,7 +188,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,7 +253,7 @@
         <v>0.82</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.2</v>

--- a/staircase.xlsx
+++ b/staircase.xlsx
@@ -188,7 +188,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,7 +244,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
